--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H2">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I2">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J2">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N2">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O2">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P2">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q2">
-        <v>14.371445047251</v>
+        <v>11.856220673625</v>
       </c>
       <c r="R2">
-        <v>57.485780189004</v>
+        <v>47.4248826945</v>
       </c>
       <c r="S2">
-        <v>0.000787831891062053</v>
+        <v>0.0001373337087157155</v>
       </c>
       <c r="T2">
-        <v>0.000431011616843232</v>
+        <v>8.189451401883223E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H3">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I3">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J3">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N3">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O3">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P3">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q3">
-        <v>4724.194777149251</v>
+        <v>13131.14903983863</v>
       </c>
       <c r="R3">
-        <v>28345.16866289551</v>
+        <v>78786.89423903175</v>
       </c>
       <c r="S3">
-        <v>0.2589768316818563</v>
+        <v>0.1521015378325003</v>
       </c>
       <c r="T3">
-        <v>0.2125238091041099</v>
+        <v>0.1360512466909469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H4">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I4">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J4">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N4">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O4">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P4">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q4">
-        <v>28.32377118734667</v>
+        <v>45845.75727367521</v>
       </c>
       <c r="R4">
-        <v>169.94262712408</v>
+        <v>275074.5436420512</v>
       </c>
       <c r="S4">
-        <v>0.001552687996452003</v>
+        <v>0.5310434116059071</v>
       </c>
       <c r="T4">
-        <v>0.00127418026243205</v>
+        <v>0.4750058364009486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H5">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I5">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J5">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N5">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O5">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P5">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q5">
-        <v>5001.989615795339</v>
+        <v>435.0908992413958</v>
       </c>
       <c r="R5">
-        <v>30011.93769477203</v>
+        <v>2610.545395448375</v>
       </c>
       <c r="S5">
-        <v>0.2742053373984535</v>
+        <v>0.005039771818198403</v>
       </c>
       <c r="T5">
-        <v>0.2250207572706192</v>
+        <v>0.004507957307169863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>172.715382</v>
       </c>
       <c r="I6">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J6">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N6">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O6">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P6">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q6">
-        <v>2.965782182013</v>
+        <v>3.980398693572</v>
       </c>
       <c r="R6">
-        <v>17.794693092078</v>
+        <v>23.882392161432</v>
       </c>
       <c r="S6">
-        <v>0.0001625819656444626</v>
+        <v>4.610600036919668E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001334194198222382</v>
+        <v>4.1240732470899E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>172.715382</v>
       </c>
       <c r="I7">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J7">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N7">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O7">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P7">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q7">
-        <v>974.914676176434</v>
+        <v>4408.420686664933</v>
       </c>
       <c r="R7">
-        <v>8774.232085587906</v>
+        <v>39675.78617998439</v>
       </c>
       <c r="S7">
-        <v>0.05344409490005648</v>
+        <v>0.0510638911964237</v>
       </c>
       <c r="T7">
-        <v>0.06578663358717704</v>
+        <v>0.06851317373741748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>172.715382</v>
       </c>
       <c r="I8">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J8">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N8">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O8">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P8">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q8">
-        <v>5.845072338840001</v>
+        <v>15391.44702020478</v>
       </c>
       <c r="R8">
-        <v>52.60565104956</v>
+        <v>138523.023181843</v>
       </c>
       <c r="S8">
-        <v>0.0003204225030233586</v>
+        <v>0.1782831612175024</v>
       </c>
       <c r="T8">
-        <v>0.0003944218316149563</v>
+        <v>0.2392051391454911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>172.715382</v>
       </c>
       <c r="I9">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J9">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N9">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O9">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P9">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q9">
-        <v>1032.242173863894</v>
+        <v>146.069754823146</v>
       </c>
       <c r="R9">
-        <v>9290.179564775048</v>
+        <v>1314.627793408314</v>
       </c>
       <c r="S9">
-        <v>0.05658674553570752</v>
+        <v>0.00169196421973517</v>
       </c>
       <c r="T9">
-        <v>0.06965505733439753</v>
+        <v>0.002270133274769479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H10">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I10">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J10">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N10">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O10">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P10">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q10">
-        <v>0.010363549738</v>
+        <v>0.002835672024</v>
       </c>
       <c r="R10">
-        <v>0.06218129842800001</v>
+        <v>0.017014032144</v>
       </c>
       <c r="S10">
-        <v>5.681220615853067E-07</v>
+        <v>3.28463315990433E-08</v>
       </c>
       <c r="T10">
-        <v>4.662172433730026E-07</v>
+        <v>2.938027075173476E-08</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H11">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I11">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J11">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N11">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O11">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P11">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q11">
-        <v>3.406715704928444</v>
+        <v>3.140598762477333</v>
       </c>
       <c r="R11">
-        <v>30.660441344356</v>
+        <v>28.265388862296</v>
       </c>
       <c r="S11">
-        <v>0.0001867536122707408</v>
+        <v>3.637837785850919E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002298830485297259</v>
+        <v>4.880940453437318E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H12">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I12">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J12">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N12">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O12">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P12">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q12">
-        <v>0.02042486406222222</v>
+        <v>10.96500604187111</v>
       </c>
       <c r="R12">
-        <v>0.18382377656</v>
+        <v>98.68505437684</v>
       </c>
       <c r="S12">
-        <v>1.119675803367031E-06</v>
+        <v>0.0001270105362639117</v>
       </c>
       <c r="T12">
-        <v>1.378257073120666E-06</v>
+        <v>0.000170411904256552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H13">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I13">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J13">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N13">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O13">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P13">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q13">
-        <v>3.607039375777334</v>
+        <v>0.1040614142431111</v>
       </c>
       <c r="R13">
-        <v>32.46335438199601</v>
+        <v>0.9365527281879999</v>
       </c>
       <c r="S13">
-        <v>0.0001977352063909202</v>
+        <v>1.205370610552187E-06</v>
       </c>
       <c r="T13">
-        <v>0.0002434007647514778</v>
+        <v>1.6172634737347E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H14">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I14">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J14">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N14">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O14">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P14">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q14">
-        <v>0.7011156419279999</v>
+        <v>1.301928136956</v>
       </c>
       <c r="R14">
-        <v>2.804462567712</v>
+        <v>5.207712547824</v>
       </c>
       <c r="S14">
-        <v>3.84346361981865E-05</v>
+        <v>1.508057453141536E-05</v>
       </c>
       <c r="T14">
-        <v>2.102704254359384E-05</v>
+        <v>8.99281271819111E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H15">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I15">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J15">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N15">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O15">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P15">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q15">
-        <v>230.471385645904</v>
+        <v>1441.927649302236</v>
       </c>
       <c r="R15">
-        <v>1382.828313875424</v>
+        <v>8651.565895813415</v>
       </c>
       <c r="S15">
-        <v>0.01263426934397497</v>
+        <v>0.0167022255429954</v>
       </c>
       <c r="T15">
-        <v>0.01036804346084275</v>
+        <v>0.01493974775021871</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H16">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I16">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J16">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N16">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O16">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P16">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q16">
-        <v>1.38178443104</v>
+        <v>5034.309245561941</v>
       </c>
       <c r="R16">
-        <v>8.290706586240001</v>
+        <v>30205.85547337164</v>
       </c>
       <c r="S16">
-        <v>7.574839118593565E-05</v>
+        <v>0.0583137222684174</v>
       </c>
       <c r="T16">
-        <v>6.216130039045137E-05</v>
+        <v>0.05216025246598523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H17">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I17">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J17">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N17">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O17">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P17">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q17">
-        <v>244.023697607664</v>
+        <v>47.777204848758</v>
       </c>
       <c r="R17">
-        <v>1464.142185645984</v>
+        <v>286.663229092548</v>
       </c>
       <c r="S17">
-        <v>0.0133771969706675</v>
+        <v>0.0005534158746342117</v>
       </c>
       <c r="T17">
-        <v>0.0109777111600265</v>
+        <v>0.0004950174781629135</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H18">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I18">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J18">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N18">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O18">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P18">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q18">
-        <v>8.767918665770001</v>
+        <v>0.073271438376</v>
       </c>
       <c r="R18">
-        <v>52.60751199462</v>
+        <v>0.4396286302560001</v>
       </c>
       <c r="S18">
-        <v>0.0004806507571382435</v>
+        <v>8.487222574640612E-07</v>
       </c>
       <c r="T18">
-        <v>0.0003944357844383593</v>
+        <v>7.591620891400835E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H19">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I19">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J19">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N19">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O19">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P19">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q19">
-        <v>2882.198375397415</v>
+        <v>81.15049509992268</v>
       </c>
       <c r="R19">
-        <v>25939.78537857674</v>
+        <v>730.3544558993041</v>
       </c>
       <c r="S19">
-        <v>0.1579999637503165</v>
+        <v>0.0009399874346958678</v>
       </c>
       <c r="T19">
-        <v>0.1944889466547658</v>
+        <v>0.001261194964100538</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H20">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I20">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J20">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N20">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O20">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P20">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q20">
-        <v>17.28013580137778</v>
+        <v>283.3267591207956</v>
       </c>
       <c r="R20">
-        <v>155.5212222124</v>
+        <v>2549.94083208716</v>
       </c>
       <c r="S20">
-        <v>0.000947284147241173</v>
+        <v>0.003281848042439171</v>
       </c>
       <c r="T20">
-        <v>0.001166052773726189</v>
+        <v>0.004403303779700711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H21">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I21">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J21">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N21">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O21">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P21">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q21">
-        <v>3051.679074311928</v>
+        <v>2.688861559623556</v>
       </c>
       <c r="R21">
-        <v>27465.11166880735</v>
+        <v>24.199754036612</v>
       </c>
       <c r="S21">
-        <v>0.1672907691693498</v>
+        <v>3.114578754659113E-05</v>
       </c>
       <c r="T21">
-        <v>0.2059253983895122</v>
+        <v>4.178876116510567E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H22">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I22">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J22">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N22">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O22">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P22">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q22">
-        <v>0.019670262337</v>
+        <v>0.010161280998</v>
       </c>
       <c r="R22">
-        <v>0.118021574022</v>
+        <v>0.060967685988</v>
       </c>
       <c r="S22">
-        <v>1.078309100003111E-06</v>
+        <v>1.177007786184534E-07</v>
       </c>
       <c r="T22">
-        <v>8.848913465966263E-07</v>
+        <v>1.052805770127729E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H23">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I23">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J23">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N23">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O23">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P23">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q23">
-        <v>6.466026922977111</v>
+        <v>11.253948361238</v>
       </c>
       <c r="R23">
-        <v>58.194242306794</v>
+        <v>101.285535251142</v>
       </c>
       <c r="S23">
-        <v>0.0003544627698633286</v>
+        <v>0.000130357430811164</v>
       </c>
       <c r="T23">
-        <v>0.0004363234592128909</v>
+        <v>0.0001749024818883008</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H24">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I24">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J24">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N24">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O24">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P24">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q24">
-        <v>0.03876687471555556</v>
+        <v>39.29174692743667</v>
       </c>
       <c r="R24">
-        <v>0.34890187244</v>
+        <v>353.62572234693</v>
       </c>
       <c r="S24">
-        <v>2.125171137439928E-06</v>
+        <v>0.0004551265935415794</v>
       </c>
       <c r="T24">
-        <v>2.61596449879549E-06</v>
+        <v>0.000610650043411049</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H25">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I25">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J25">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N25">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O25">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P25">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q25">
-        <v>6.846245984739335</v>
+        <v>0.3728912449056667</v>
       </c>
       <c r="R25">
-        <v>61.61621386265401</v>
+        <v>3.356021204151</v>
       </c>
       <c r="S25">
-        <v>0.0003753060950446939</v>
+        <v>4.319296934514453E-06</v>
       </c>
       <c r="T25">
-        <v>0.0004619804040822744</v>
+        <v>5.795264214384999E-06</v>
       </c>
     </row>
   </sheetData>
